--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -529,7 +529,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2">
-        <v>44019.29585434218</v>
+        <v>44019.50411295066</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -553,31 +553,31 @@
         <v>1000</v>
       </c>
       <c r="M2">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="N2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O2">
-        <v>0.009723000000000001</v>
+        <v>0.010222</v>
       </c>
       <c r="P2">
-        <v>0.002045</v>
+        <v>0.002859</v>
       </c>
       <c r="Q2">
-        <v>0.214167</v>
+        <v>0.232258</v>
       </c>
       <c r="R2">
-        <v>0.183659</v>
+        <v>0.180643</v>
       </c>
       <c r="S2">
-        <v>0.002068</v>
+        <v>0.002727</v>
       </c>
       <c r="T2">
-        <v>0.014846</v>
+        <v>0.025828</v>
       </c>
       <c r="U2">
-        <v>0.017925</v>
+        <v>0.033884</v>
       </c>
     </row>
   </sheetData>

--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -82,10 +82,10 @@
     <t>NetA</t>
   </si>
   <si>
-    <t>MSE</t>
-  </si>
-  <si>
-    <t>1000N63</t>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>2000N63</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2">
-        <v>44019.50411295066</v>
+        <v>44019.69767473063</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -541,7 +541,7 @@
         <v>64</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <v>5</v>
@@ -550,34 +550,34 @@
         <v>32</v>
       </c>
       <c r="L2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M2">
         <v>1000</v>
       </c>
       <c r="N2">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="O2">
-        <v>0.010222</v>
+        <v>2e-06</v>
       </c>
       <c r="P2">
-        <v>0.002859</v>
+        <v>0.003343</v>
       </c>
       <c r="Q2">
-        <v>0.232258</v>
+        <v>0.246938</v>
       </c>
       <c r="R2">
-        <v>0.180643</v>
+        <v>0.190281</v>
       </c>
       <c r="S2">
-        <v>0.002727</v>
+        <v>0.001034</v>
       </c>
       <c r="T2">
-        <v>0.025828</v>
+        <v>0.012058</v>
       </c>
       <c r="U2">
-        <v>0.033884</v>
+        <v>0.018565</v>
       </c>
     </row>
   </sheetData>

--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -82,7 +82,7 @@
     <t>NetA</t>
   </si>
   <si>
-    <t>MAE</t>
+    <t>MSE</t>
   </si>
   <si>
     <t>2000N63</t>
@@ -529,7 +529,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2">
-        <v>44019.69767473063</v>
+        <v>44019.94733634291</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -556,28 +556,28 @@
         <v>1000</v>
       </c>
       <c r="N2">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O2">
-        <v>2e-06</v>
+        <v>0.000183</v>
       </c>
       <c r="P2">
-        <v>0.003343</v>
+        <v>0.00369</v>
       </c>
       <c r="Q2">
-        <v>0.246938</v>
+        <v>0.251572</v>
       </c>
       <c r="R2">
-        <v>0.190281</v>
+        <v>0.190966</v>
       </c>
       <c r="S2">
-        <v>0.001034</v>
+        <v>0.001195</v>
       </c>
       <c r="T2">
-        <v>0.012058</v>
+        <v>0.014119</v>
       </c>
       <c r="U2">
-        <v>0.018565</v>
+        <v>0.021495</v>
       </c>
     </row>
   </sheetData>

--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -76,7 +76,7 @@
     <t>MIEu</t>
   </si>
   <si>
-    <t>Helmholtz</t>
+    <t>Burgers</t>
   </si>
   <si>
     <t>NetA</t>
@@ -529,7 +529,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2">
-        <v>44019.94733634291</v>
+        <v>44020.78845899536</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -541,7 +541,7 @@
         <v>64</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>5</v>
@@ -553,31 +553,31 @@
         <v>2000</v>
       </c>
       <c r="M2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>0.000183</v>
+        <v>32.816352</v>
       </c>
       <c r="P2">
-        <v>0.00369</v>
+        <v>0.006591</v>
       </c>
       <c r="Q2">
-        <v>0.251572</v>
+        <v>0.731052</v>
       </c>
       <c r="R2">
-        <v>0.190966</v>
+        <v>0.301021</v>
       </c>
       <c r="S2">
-        <v>0.001195</v>
+        <v>0.010622</v>
       </c>
       <c r="T2">
-        <v>0.014119</v>
+        <v>0.210731</v>
       </c>
       <c r="U2">
-        <v>0.021495</v>
+        <v>0.283926</v>
       </c>
     </row>
   </sheetData>

--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -76,16 +76,16 @@
     <t>MIEu</t>
   </si>
   <si>
-    <t>Burgers</t>
-  </si>
-  <si>
-    <t>NetA</t>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>ResNet</t>
   </si>
   <si>
     <t>MSE</t>
   </si>
   <si>
-    <t>2000N63</t>
+    <t>500N63</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2">
-        <v>44020.78845899536</v>
+        <v>44020.85004700843</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -541,7 +541,7 @@
         <v>64</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>5</v>
@@ -550,34 +550,34 @@
         <v>32</v>
       </c>
       <c r="L2">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="M2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="O2">
-        <v>32.816352</v>
+        <v>0.055002</v>
       </c>
       <c r="P2">
-        <v>0.006591</v>
+        <v>0.000267</v>
       </c>
       <c r="Q2">
-        <v>0.731052</v>
+        <v>0.013362</v>
       </c>
       <c r="R2">
-        <v>0.301021</v>
+        <v>0.006681</v>
       </c>
       <c r="S2">
-        <v>0.010622</v>
+        <v>0.000329</v>
       </c>
       <c r="T2">
-        <v>0.210731</v>
+        <v>0.00319</v>
       </c>
       <c r="U2">
-        <v>0.283926</v>
+        <v>0.004525</v>
       </c>
     </row>
   </sheetData>

--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -76,16 +76,16 @@
     <t>MIEu</t>
   </si>
   <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>ResNet</t>
+    <t>Burgers</t>
+  </si>
+  <si>
+    <t>NetA</t>
   </si>
   <si>
     <t>MSE</t>
   </si>
   <si>
-    <t>500N63</t>
+    <t>2000N63</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2">
-        <v>44020.85004700843</v>
+        <v>44021.53086594807</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -541,7 +541,7 @@
         <v>64</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>5</v>
@@ -550,34 +550,34 @@
         <v>32</v>
       </c>
       <c r="L2">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="M2">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="N2">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="O2">
-        <v>0.055002</v>
+        <v>225.536734</v>
       </c>
       <c r="P2">
-        <v>0.000267</v>
+        <v>0.025325</v>
       </c>
       <c r="Q2">
-        <v>0.013362</v>
+        <v>2.458252</v>
       </c>
       <c r="R2">
-        <v>0.006681</v>
+        <v>1.014848</v>
       </c>
       <c r="S2">
-        <v>0.000329</v>
+        <v>0.035936</v>
       </c>
       <c r="T2">
-        <v>0.00319</v>
+        <v>0.689398</v>
       </c>
       <c r="U2">
-        <v>0.004525</v>
+        <v>1.025591</v>
       </c>
     </row>
   </sheetData>

--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -85,7 +85,7 @@
     <t>MSE</t>
   </si>
   <si>
-    <t>2000N63</t>
+    <t>5000N63</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2">
-        <v>44021.53086594807</v>
+        <v>44022.32335889822</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -550,34 +550,34 @@
         <v>32</v>
       </c>
       <c r="L2">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M2">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="N2">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="O2">
-        <v>225.536734</v>
+        <v>0.138049</v>
       </c>
       <c r="P2">
-        <v>0.025325</v>
+        <v>0.000197</v>
       </c>
       <c r="Q2">
-        <v>2.458252</v>
+        <v>0.022146</v>
       </c>
       <c r="R2">
-        <v>1.014848</v>
+        <v>0.015324</v>
       </c>
       <c r="S2">
-        <v>0.035936</v>
+        <v>0.000929</v>
       </c>
       <c r="T2">
-        <v>0.689398</v>
+        <v>0.016669</v>
       </c>
       <c r="U2">
-        <v>1.025591</v>
+        <v>0.018896</v>
       </c>
     </row>
   </sheetData>

--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -76,7 +76,7 @@
     <t>MIEu</t>
   </si>
   <si>
-    <t>Burgers</t>
+    <t>Standard</t>
   </si>
   <si>
     <t>NetA</t>
@@ -85,7 +85,7 @@
     <t>MSE</t>
   </si>
   <si>
-    <t>5000N63</t>
+    <t>2000N63</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2">
-        <v>44022.32335889822</v>
+        <v>44024.62962539909</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -550,34 +550,34 @@
         <v>32</v>
       </c>
       <c r="L2">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="M2">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="N2">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="O2">
-        <v>0.138049</v>
+        <v>5.071901</v>
       </c>
       <c r="P2">
-        <v>0.000197</v>
+        <v>0.003145</v>
       </c>
       <c r="Q2">
-        <v>0.022146</v>
+        <v>0.166903</v>
       </c>
       <c r="R2">
-        <v>0.015324</v>
+        <v>0.08817999999999999</v>
       </c>
       <c r="S2">
-        <v>0.000929</v>
+        <v>0.006863</v>
       </c>
       <c r="T2">
-        <v>0.016669</v>
+        <v>0.082791</v>
       </c>
       <c r="U2">
-        <v>0.018896</v>
+        <v>0.100202</v>
       </c>
     </row>
   </sheetData>

--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -79,13 +79,13 @@
     <t>Standard</t>
   </si>
   <si>
-    <t>NetA</t>
+    <t>ResNet</t>
   </si>
   <si>
     <t>MSE</t>
   </si>
   <si>
-    <t>2000N63</t>
+    <t>500N63</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2">
-        <v>44024.62962539909</v>
+        <v>44028.43953319729</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -541,7 +541,7 @@
         <v>64</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>5</v>
@@ -550,34 +550,34 @@
         <v>32</v>
       </c>
       <c r="L2">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="M2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="O2">
-        <v>5.071901</v>
+        <v>53987.904</v>
       </c>
       <c r="P2">
-        <v>0.003145</v>
+        <v>0.296636</v>
       </c>
       <c r="Q2">
-        <v>0.166903</v>
+        <v>11.187615</v>
       </c>
       <c r="R2">
-        <v>0.08817999999999999</v>
+        <v>5.02492</v>
       </c>
       <c r="S2">
-        <v>0.006863</v>
+        <v>0.520981</v>
       </c>
       <c r="T2">
-        <v>0.082791</v>
+        <v>3.894686</v>
       </c>
       <c r="U2">
-        <v>0.100202</v>
+        <v>5.718886</v>
       </c>
     </row>
   </sheetData>

--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -76,7 +76,7 @@
     <t>MIEu</t>
   </si>
   <si>
-    <t>Standard</t>
+    <t>Helmholtz</t>
   </si>
   <si>
     <t>ResNet</t>
@@ -529,7 +529,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2">
-        <v>44028.43953319729</v>
+        <v>44028.73231990628</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -553,31 +553,31 @@
         <v>500</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N2">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="O2">
-        <v>53987.904</v>
+        <v>7252.315</v>
       </c>
       <c r="P2">
-        <v>0.296636</v>
+        <v>0.176657</v>
       </c>
       <c r="Q2">
-        <v>11.187615</v>
+        <v>7.639154</v>
       </c>
       <c r="R2">
-        <v>5.02492</v>
+        <v>3.26685</v>
       </c>
       <c r="S2">
-        <v>0.520981</v>
+        <v>0.2178</v>
       </c>
       <c r="T2">
-        <v>3.894686</v>
+        <v>2.046046</v>
       </c>
       <c r="U2">
-        <v>5.718886</v>
+        <v>3.029378</v>
       </c>
     </row>
   </sheetData>

--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -76,7 +76,7 @@
     <t>MIEu</t>
   </si>
   <si>
-    <t>Helmholtz</t>
+    <t>Standard</t>
   </si>
   <si>
     <t>ResNet</t>
@@ -85,7 +85,7 @@
     <t>MSE</t>
   </si>
   <si>
-    <t>500N63</t>
+    <t>300N63</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2">
-        <v>44028.73231990628</v>
+        <v>44028.93301177782</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -550,34 +550,34 @@
         <v>32</v>
       </c>
       <c r="L2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M2">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="N2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O2">
-        <v>7252.315</v>
+        <v>0.052375</v>
       </c>
       <c r="P2">
-        <v>0.176657</v>
+        <v>0.0007470000000000001</v>
       </c>
       <c r="Q2">
-        <v>7.639154</v>
+        <v>0.03756</v>
       </c>
       <c r="R2">
-        <v>3.26685</v>
+        <v>0.017794</v>
       </c>
       <c r="S2">
-        <v>0.2178</v>
+        <v>0.000861</v>
       </c>
       <c r="T2">
-        <v>2.046046</v>
+        <v>0.00944</v>
       </c>
       <c r="U2">
-        <v>3.029378</v>
+        <v>0.0147</v>
       </c>
     </row>
   </sheetData>

--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -85,7 +85,7 @@
     <t>MSE</t>
   </si>
   <si>
-    <t>300N63</t>
+    <t>500N31</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2">
-        <v>44028.93301177782</v>
+        <v>44030.78438080546</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -538,7 +538,7 @@
         <v>20</v>
       </c>
       <c r="H2">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -550,34 +550,34 @@
         <v>32</v>
       </c>
       <c r="L2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M2">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="N2">
         <v>0.3</v>
       </c>
       <c r="O2">
-        <v>0.052375</v>
+        <v>0.001487</v>
       </c>
       <c r="P2">
-        <v>0.0007470000000000001</v>
+        <v>0.00019</v>
       </c>
       <c r="Q2">
-        <v>0.03756</v>
+        <v>0.009794000000000001</v>
       </c>
       <c r="R2">
-        <v>0.017794</v>
+        <v>0.006968</v>
       </c>
       <c r="S2">
-        <v>0.000861</v>
+        <v>0.000211</v>
       </c>
       <c r="T2">
-        <v>0.00944</v>
+        <v>0.003545</v>
       </c>
       <c r="U2">
-        <v>0.0147</v>
+        <v>0.004966</v>
       </c>
     </row>
   </sheetData>

--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -76,16 +76,16 @@
     <t>MIEu</t>
   </si>
   <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>ResNet</t>
+    <t>Helmholtz</t>
+  </si>
+  <si>
+    <t>NetA</t>
   </si>
   <si>
     <t>MSE</t>
   </si>
   <si>
-    <t>500N31</t>
+    <t>500N127</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2">
-        <v>44030.78438080546</v>
+        <v>44041.33485056846</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -538,10 +538,10 @@
         <v>20</v>
       </c>
       <c r="H2">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>5</v>
@@ -553,31 +553,31 @@
         <v>500</v>
       </c>
       <c r="M2">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N2">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="O2">
-        <v>0.001487</v>
+        <v>0.069426</v>
       </c>
       <c r="P2">
-        <v>0.00019</v>
+        <v>0.001843</v>
       </c>
       <c r="Q2">
-        <v>0.009794000000000001</v>
+        <v>0.24834</v>
       </c>
       <c r="R2">
-        <v>0.006968</v>
+        <v>0.187592</v>
       </c>
       <c r="S2">
-        <v>0.000211</v>
+        <v>0.000759</v>
       </c>
       <c r="T2">
-        <v>0.003545</v>
+        <v>0.010457</v>
       </c>
       <c r="U2">
-        <v>0.004966</v>
+        <v>0.016611</v>
       </c>
     </row>
   </sheetData>

--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -76,16 +76,16 @@
     <t>MIEu</t>
   </si>
   <si>
-    <t>Helmholtz</t>
-  </si>
-  <si>
-    <t>NetA</t>
+    <t>Burgers</t>
+  </si>
+  <si>
+    <t>ResNet</t>
   </si>
   <si>
     <t>MSE</t>
   </si>
   <si>
-    <t>500N127</t>
+    <t>10000N31</t>
   </si>
 </sst>
 </file>
@@ -529,19 +529,19 @@
         <v>22</v>
       </c>
       <c r="E2" s="2">
-        <v>44041.33485056846</v>
+        <v>44044.63277629691</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H2">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <v>5</v>
@@ -550,34 +550,34 @@
         <v>32</v>
       </c>
       <c r="L2">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="M2">
-        <v>5000</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="O2">
-        <v>0.069426</v>
+        <v>17241728.6144</v>
       </c>
       <c r="P2">
-        <v>0.001843</v>
+        <v>4.912284</v>
       </c>
       <c r="Q2">
-        <v>0.24834</v>
+        <v>546.372671</v>
       </c>
       <c r="R2">
-        <v>0.187592</v>
+        <v>338.714869</v>
       </c>
       <c r="S2">
-        <v>0.000759</v>
+        <v>7.153151</v>
       </c>
       <c r="T2">
-        <v>0.010457</v>
+        <v>209.397766</v>
       </c>
       <c r="U2">
-        <v>0.016611</v>
+        <v>232.191147</v>
       </c>
     </row>
   </sheetData>

--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>EQUATION</t>
   </si>
@@ -76,16 +76,19 @@
     <t>MIEu</t>
   </si>
   <si>
-    <t>Burgers</t>
-  </si>
-  <si>
-    <t>ResNet</t>
+    <t>NBFUNCS</t>
+  </si>
+  <si>
+    <t>BurgersT</t>
+  </si>
+  <si>
+    <t>NetA</t>
   </si>
   <si>
     <t>MSE</t>
   </si>
   <si>
-    <t>10000N31</t>
+    <t>10N31</t>
   </si>
 </sst>
 </file>
@@ -447,13 +450,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,34 +517,37 @@
       <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44047.75602916616</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2">
-        <v>44044.63277629691</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
       </c>
       <c r="H2">
         <v>32</v>
       </c>
       <c r="I2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>5</v>
@@ -550,34 +556,37 @@
         <v>32</v>
       </c>
       <c r="L2">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>17.6</v>
+      </c>
+      <c r="O2">
+        <v>32691.471875</v>
+      </c>
+      <c r="P2">
+        <v>13.807804</v>
+      </c>
+      <c r="Q2">
+        <v>62564.862023</v>
+      </c>
+      <c r="R2">
+        <v>34838.919231</v>
+      </c>
+      <c r="S2">
+        <v>21.308152</v>
+      </c>
+      <c r="T2">
+        <v>35988.908188</v>
+      </c>
+      <c r="U2">
+        <v>56030.145165</v>
+      </c>
+      <c r="V2">
         <v>1</v>
-      </c>
-      <c r="N2">
-        <v>3</v>
-      </c>
-      <c r="O2">
-        <v>17241728.6144</v>
-      </c>
-      <c r="P2">
-        <v>4.912284</v>
-      </c>
-      <c r="Q2">
-        <v>546.372671</v>
-      </c>
-      <c r="R2">
-        <v>338.714869</v>
-      </c>
-      <c r="S2">
-        <v>7.153151</v>
-      </c>
-      <c r="T2">
-        <v>209.397766</v>
-      </c>
-      <c r="U2">
-        <v>232.191147</v>
       </c>
     </row>
   </sheetData>

--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -88,7 +88,7 @@
     <t>MSE</t>
   </si>
   <si>
-    <t>10N31</t>
+    <t>5000N31</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="2">
-        <v>44047.75602916616</v>
+        <v>44049.61682394498</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -556,34 +556,34 @@
         <v>32</v>
       </c>
       <c r="L2">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="N2">
-        <v>17.6</v>
+        <v>3.1</v>
       </c>
       <c r="O2">
-        <v>32691.471875</v>
+        <v>0.000358</v>
       </c>
       <c r="P2">
-        <v>13.807804</v>
+        <v>2.9E-05</v>
       </c>
       <c r="Q2">
-        <v>62564.862023</v>
+        <v>2.021874</v>
       </c>
       <c r="R2">
-        <v>34838.919231</v>
+        <v>2.02099</v>
       </c>
       <c r="S2">
-        <v>21.308152</v>
+        <v>0.000105</v>
       </c>
       <c r="T2">
-        <v>35988.908188</v>
+        <v>2.011993</v>
       </c>
       <c r="U2">
-        <v>56030.145165</v>
+        <v>2.020752</v>
       </c>
       <c r="V2">
         <v>1</v>

--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -79,16 +79,16 @@
     <t>NBFUNCS</t>
   </si>
   <si>
-    <t>BurgersT</t>
-  </si>
-  <si>
-    <t>NetA</t>
+    <t>Helmholtz</t>
+  </si>
+  <si>
+    <t>ResNet</t>
   </si>
   <si>
     <t>MSE</t>
   </si>
   <si>
-    <t>5000N31</t>
+    <t>100N31</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="2">
-        <v>44049.61682394498</v>
+        <v>44050.87855481443</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -547,7 +547,7 @@
         <v>32</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>5</v>
@@ -556,37 +556,37 @@
         <v>32</v>
       </c>
       <c r="L2">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="M2">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="N2">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="O2">
-        <v>0.000358</v>
+        <v>4448.3175</v>
       </c>
       <c r="P2">
-        <v>2.9E-05</v>
+        <v>0.181478</v>
       </c>
       <c r="Q2">
-        <v>2.021874</v>
+        <v>5.927605</v>
       </c>
       <c r="R2">
-        <v>2.02099</v>
+        <v>3.211066</v>
       </c>
       <c r="S2">
-        <v>0.000105</v>
+        <v>0.227315</v>
       </c>
       <c r="T2">
-        <v>2.011993</v>
+        <v>2.085727</v>
       </c>
       <c r="U2">
-        <v>2.020752</v>
+        <v>3.35058</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -79,16 +79,16 @@
     <t>NBFUNCS</t>
   </si>
   <si>
-    <t>Helmholtz</t>
-  </si>
-  <si>
-    <t>ResNet</t>
+    <t>Burgers</t>
+  </si>
+  <si>
+    <t>NetA</t>
   </si>
   <si>
     <t>MSE</t>
   </si>
   <si>
-    <t>100N31</t>
+    <t>1000N31</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="2">
-        <v>44050.87855481443</v>
+        <v>44051.19191161724</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -547,7 +547,7 @@
         <v>32</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>5</v>
@@ -556,37 +556,37 @@
         <v>32</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="M2">
-        <v>20</v>
+        <v>100000</v>
       </c>
       <c r="N2">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="O2">
-        <v>4448.3175</v>
+        <v>2.304236</v>
       </c>
       <c r="P2">
-        <v>0.181478</v>
+        <v>0.0008630000000000001</v>
       </c>
       <c r="Q2">
-        <v>5.927605</v>
+        <v>0.050889</v>
       </c>
       <c r="R2">
-        <v>3.211066</v>
+        <v>0.045676</v>
       </c>
       <c r="S2">
-        <v>0.227315</v>
+        <v>0.004426</v>
       </c>
       <c r="T2">
-        <v>2.085727</v>
+        <v>0.044978</v>
       </c>
       <c r="U2">
-        <v>3.35058</v>
+        <v>0.045374</v>
       </c>
       <c r="V2">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/log_data.xlsx
+++ b/log_data.xlsx
@@ -79,7 +79,7 @@
     <t>NBFUNCS</t>
   </si>
   <si>
-    <t>Burgers</t>
+    <t>Standard</t>
   </si>
   <si>
     <t>NetA</t>
@@ -88,7 +88,7 @@
     <t>MSE</t>
   </si>
   <si>
-    <t>1000N31</t>
+    <t>10N31</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="2">
-        <v>44051.19191161724</v>
+        <v>44051.68359348661</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -550,43 +550,43 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K2">
         <v>32</v>
       </c>
       <c r="L2">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="M2">
-        <v>100000</v>
+        <v>20</v>
       </c>
       <c r="N2">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="O2">
-        <v>2.304236</v>
+        <v>36.538651</v>
       </c>
       <c r="P2">
-        <v>0.0008630000000000001</v>
+        <v>0.075645</v>
       </c>
       <c r="Q2">
-        <v>0.050889</v>
+        <v>2.285497</v>
       </c>
       <c r="R2">
-        <v>0.045676</v>
+        <v>0.212878</v>
       </c>
       <c r="S2">
-        <v>0.004426</v>
+        <v>0.126324</v>
       </c>
       <c r="T2">
-        <v>0.044978</v>
+        <v>1.110228</v>
       </c>
       <c r="U2">
-        <v>0.045374</v>
+        <v>0.405368</v>
       </c>
       <c r="V2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
